--- a/biology/Mycologie/Amibe_acrasiale/Amibe_acrasiale.xlsx
+++ b/biology/Mycologie/Amibe_acrasiale/Amibe_acrasiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les amibes acrasiales sont la forme unicellulaire (ou myxamibe) des Acrasiomycètes. 
 Bien que passant normalement leur vie sous une forme d'amibe bien ordinaire (dite « amibe acrasiale »), elles peuvent, en cas de stress, par exemple lié à la dégradation de leur milieu, s'unir et former un organisme pluricellulaire : la « limace amibiale », visible à l'œil nu et mesurant environ deux millimètres de longueur. 
@@ -488,7 +500,7 @@
 Une fois à la surface du substrat, la colonie va former un sporocarpe ressemblant à ceux des champignons myxomycètes, soit un pédicelle surmonté d'une capsule contenant des amibes enkystées appelées spores. 
 Seuls les spores pourront survivre, les amibes composant le pédicelle sont condamnées à mourir.
 Elles constituent probablement un chaînon évolutif intermédiaire entre les amibes et les myxomycètes et se retrouvent ainsi au carrefour des Protistes, des Métazoaires et des Fungi.
-L'étude de leur organisation sociale constitua une confirmation expérimentale remarquable de la sélection de parentèle[1].
+L'étude de leur organisation sociale constitua une confirmation expérimentale remarquable de la sélection de parentèle.
 </t>
         </is>
       </c>
